--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cotinga/Documents/jakeberv.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FA20AA7E-BD36-DC43-8BB1-3DF4BA791497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8CAD71BE-731C-0C47-8BD9-C8B10C15CC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1300" windowWidth="21360" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>http://jakeberv.github.io/files/papers/Field_et_al_2020.pdf</t>
   </si>
   <si>
-    <t>Field, D.J., Berv, J.S., Hsiang, A.Y., Lanfear, R., Landis, M.J., Dornburg, A., (2020). Timing the Extant Avian Radiation: The Rise of Modern Birds, and the Importance of Modeling Molecular Rate Variation. In: Pittman, M., Xu, X. (Eds.), Pennaraptoran Theropod Dinosaurs Past Progress and New Frontiers. &lt;i&gt; Bulletin of the American Museum of Natural History &lt;/i&gt;, New York, pp. 159-181. digitallibrary.amnh.org/handle/2246/72374</t>
-  </si>
-  <si>
     <t>An inverse latitudinal gradient in infection probability and phylogenetic diversity for Leucocytozoon blood parasites in New World birds</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>Field, D.J., Berv, J.S., Hsiang, A.Y., Lanfear, R., Landis, M.J., Dornburg, A., (2020). Timing the Extant Avian Radiation: The Rise of Modern Birds, and the Importance of Modeling Molecular Rate Variation. In: Pittman, M., Xu, X. (Eds.), Pennaraptoran Theropod Dinosaurs Past Progress and New Frontiers. &lt;i&gt; Bulletin of the American Museum of Natural History &lt;/i&gt;, New York, pp. 159-181. https://digitallibrary.amnh.org/handle/2246/7237</t>
   </si>
 </sst>
 </file>
@@ -778,11 +778,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1140,8 +1139,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1248,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1260,182 +1259,182 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="3" t="s">
         <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cotinga/Documents/jakeberv.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8CAD71BE-731C-0C47-8BD9-C8B10C15CC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CDB71810-93DE-D54D-9D49-60BE53E90E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1300" windowWidth="21360" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
